--- a/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
+++ b/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">彩兴!$A$1:$F$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">彩兴!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <r>
       <rPr>
@@ -110,7 +110,7 @@
     <t>合同编号:</t>
   </si>
   <si>
-    <t>CCD-2019-11-20-00001</t>
+    <t>CCD-2020-5-24-00001</t>
   </si>
   <si>
     <t>签约时间:</t>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>2835贴片JC-E2835UR00</t>
-  </si>
-  <si>
-    <t>2835贴片JC-2835PG1AF70</t>
   </si>
   <si>
     <t>合计（小写）:</t>
@@ -441,11 +438,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General&quot;圆&quot;&quot;整&quot;"/>
   </numFmts>
   <fonts count="32">
@@ -507,6 +504,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -516,14 +597,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,76 +633,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,44 +650,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,25 +676,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,157 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,9 +989,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,21 +1076,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1052,192 +1084,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,12 +1311,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -1328,9 +1319,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -1781,10 +1769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1841,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <v>43424</v>
+        <v>43975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1904,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="22">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>19</v>
@@ -1914,7 +1902,7 @@
       </c>
       <c r="F11" s="25">
         <f>C11*E11</f>
-        <v>5200</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1925,312 +1913,297 @@
         <v>20</v>
       </c>
       <c r="C12" s="22">
-        <v>54000</v>
+        <v>34000</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="24">
-        <v>0.0324</v>
+        <v>0.03</v>
       </c>
       <c r="F12" s="25">
-        <f>C12*E12</f>
-        <v>1749.6</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20">
-        <v>3</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="26"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="29"/>
+      <c r="B21" s="27">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30">
+        <v>0</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="21" customHeight="1" spans="1:6">
+      <c r="A27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="22">
-        <v>153000</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="24">
-        <v>0.0215</v>
-      </c>
-      <c r="F13" s="25">
-        <v>3288.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="30">
-        <v>0</v>
-      </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="30">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="28"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="22">
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="31"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="22">
-        <v>0</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33">
-        <v>0</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="32"/>
-      <c r="B22" s="29">
-        <v>0</v>
-      </c>
-      <c r="C22" s="22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33">
-        <v>0</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33">
-        <v>0</v>
-      </c>
-      <c r="C24" s="22">
-        <v>0</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33">
-        <v>0</v>
-      </c>
-      <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33">
-        <v>0</v>
-      </c>
-      <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33">
-        <v>0</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:6">
-      <c r="A28" s="34" t="s">
+      <c r="B27" s="32">
+        <f>SUM(F11:F12)</f>
+        <v>11404</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" ht="22" customHeight="1" spans="1:6">
+      <c r="A28" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="35">
-        <f>SUM(F11:F13)</f>
-        <v>10238.4</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:6">
-      <c r="A29" s="34" t="s">
+      <c r="B28" s="36">
+        <f>B27</f>
+        <v>11404</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="39">
-        <f>B28</f>
-        <v>10238.4</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+      <c r="B30" s="42">
+        <v>43977</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="45">
-        <v>43426</v>
-      </c>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="15" t="s">
@@ -2245,13 +2218,13 @@
       <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="15"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="15"/>
@@ -2268,164 +2241,158 @@
       </c>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
+    <row r="38" ht="16.35" spans="1:2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="40"/>
+    </row>
+    <row r="39" ht="16.35" spans="1:6">
+      <c r="A39" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="15"/>
-    </row>
-    <row r="39" ht="16.35" spans="1:2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="43"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="47" t="s">
+      <c r="B39" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="47" t="s">
+      <c r="D39" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" ht="16.35" spans="1:6">
+      <c r="A40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="47" t="s">
+      <c r="B40" s="46" t="s">
         <v>34</v>
       </c>
+      <c r="C40" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+    </row>
+    <row r="41" ht="16.35" spans="1:6">
+      <c r="A41" s="44" t="s">
+        <v>36</v>
+      </c>
       <c r="B41" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="52" t="s">
+      <c r="D41" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="49" t="s">
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+    </row>
+    <row r="42" ht="16.35" spans="1:6">
+      <c r="A42" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="47" t="s">
+      <c r="B42" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="C42" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="49" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" ht="16.35" spans="1:6">
+      <c r="A43" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="54" t="s">
+      <c r="B43" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="C43" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="56" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+    </row>
+    <row r="44" ht="16.35" spans="1:6">
+      <c r="A44" s="51"/>
+      <c r="B44" s="56">
+        <v>550064797700015</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="57"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="58"/>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="54"/>
-      <c r="B45" s="59">
-        <v>550064797700015</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="60" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="61"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="60"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="63" t="s">
+      <c r="A47" s="62"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="60"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="63"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="65"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="63"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="63"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="63"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15625" right="0.15625" top="0.196527777777778" bottom="0.196527777777778" header="0.511805555555556" footer="0.511805555555556"/>

--- a/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
+++ b/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">彩兴!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">彩兴!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -110,7 +110,7 @@
     <t>合同编号:</t>
   </si>
   <si>
-    <t>CCD-2020-5-24-00001</t>
+    <t>CCD-2020-7-20-00001</t>
   </si>
   <si>
     <t>签约时间:</t>
@@ -438,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General&quot;圆&quot;&quot;整&quot;"/>
   </numFmts>
@@ -504,13 +504,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,10 +513,76 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,6 +594,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -543,23 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,81 +648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -676,187 +676,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,6 +994,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,45 +1046,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1084,153 +1069,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1769,10 +1769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1829,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <v>43975</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1892,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="22">
-        <v>800000</v>
+        <v>2100000</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>19</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F11" s="25">
         <f>C11*E11</f>
-        <v>10400</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1913,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="22">
-        <v>34000</v>
+        <v>590660</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>19</v>
@@ -1922,17 +1922,13 @@
         <v>0.03</v>
       </c>
       <c r="F12" s="25">
-        <v>1004</v>
+        <v>15290</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="26"/>
-      <c r="B13" s="27">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="28">
         <v>0</v>
       </c>
@@ -1960,7 +1956,9 @@
     <row r="15" spans="1:6">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
       <c r="D15" s="28">
         <v>0</v>
       </c>
@@ -1973,11 +1971,11 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="22">
         <v>0</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="22">
         <v>0</v>
       </c>
       <c r="E16" s="24">
@@ -1989,7 +1987,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="26"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="22">
         <v>0</v>
       </c>
@@ -2004,7 +2002,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="26"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="27"/>
       <c r="C18" s="22">
         <v>0</v>
@@ -2020,8 +2018,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30">
+        <v>0</v>
+      </c>
       <c r="C19" s="22">
         <v>0</v>
       </c>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="29"/>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>0</v>
       </c>
       <c r="C20" s="22">
@@ -2055,7 +2055,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="29"/>
-      <c r="B21" s="27">
+      <c r="B21" s="30">
         <v>0</v>
       </c>
       <c r="C21" s="22">
@@ -2143,219 +2143,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30">
-        <v>0</v>
-      </c>
-      <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="21" customHeight="1" spans="1:6">
+    <row r="26" ht="21" customHeight="1" spans="1:6">
+      <c r="A26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="32">
+        <f>SUM(F11:F12)</f>
+        <v>42590</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" ht="22" customHeight="1" spans="1:6">
       <c r="A27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="32">
-        <f>SUM(F11:F12)</f>
-        <v>11404</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" ht="22" customHeight="1" spans="1:6">
-      <c r="A28" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="36">
-        <f>B27</f>
-        <v>11404</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
+      <c r="B27" s="36">
+        <f>B26</f>
+        <v>42590</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="42">
+        <v>44034</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="42">
-        <v>43977</v>
-      </c>
+      <c r="A30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="15"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="15"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
-        <v>26</v>
+      <c r="A33" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="43" t="s">
-        <v>27</v>
+      <c r="A34" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B34" s="15"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="15"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" ht="16.35" spans="1:2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="40"/>
+    <row r="37" ht="16.35" spans="1:2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="40"/>
+    </row>
+    <row r="38" ht="16.35" spans="1:6">
+      <c r="A38" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" ht="16.35" spans="1:6">
       <c r="A39" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="48"/>
     </row>
     <row r="40" ht="16.35" spans="1:6">
       <c r="A40" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="48"/>
     </row>
     <row r="41" ht="16.35" spans="1:6">
       <c r="A41" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="48"/>
     </row>
     <row r="42" ht="16.35" spans="1:6">
-      <c r="A42" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
+      <c r="A42" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
     </row>
     <row r="43" ht="16.35" spans="1:6">
-      <c r="A43" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-    </row>
-    <row r="44" ht="16.35" spans="1:6">
-      <c r="A44" s="51"/>
-      <c r="B44" s="56">
+      <c r="A43" s="51"/>
+      <c r="B43" s="56">
         <v>550064797700015</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="57" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="58"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="60"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>47</v>
-      </c>
+      <c r="A46" s="62"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="60"/>
       <c r="D46" s="60"/>
       <c r="E46" s="61"/>
       <c r="F46" s="60"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="62"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60" t="s">
+        <v>48</v>
+      </c>
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
       <c r="E47" s="61"/>
@@ -2363,36 +2355,26 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="60"/>
-      <c r="B48" s="60" t="s">
-        <v>48</v>
-      </c>
+      <c r="B48" s="60"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="61"/>
       <c r="F48" s="60"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15625" right="0.15625" top="0.196527777777778" bottom="0.196527777777778" header="0.511805555555556" footer="0.511805555555556"/>

--- a/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
+++ b/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
@@ -438,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General&quot;圆&quot;&quot;整&quot;"/>
   </numFmts>
@@ -504,6 +504,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,76 +618,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,20 +632,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -624,25 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,6 +676,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,18 +766,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -718,145 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,26 +983,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +998,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,168 +1084,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1772,7 +1772,7 @@
   <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1829,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <v>44032</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1892,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="22">
-        <v>2100000</v>
+        <v>1500000</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>19</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F11" s="25">
         <f>C11*E11</f>
-        <v>27300</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1913,7 +1913,8 @@
         <v>20</v>
       </c>
       <c r="C12" s="22">
-        <v>590660</v>
+        <f>F12/E12</f>
+        <v>147500</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>19</v>
@@ -1922,7 +1923,7 @@
         <v>0.03</v>
       </c>
       <c r="F12" s="25">
-        <v>15290</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2149,7 +2150,7 @@
       </c>
       <c r="B26" s="32">
         <f>SUM(F11:F12)</f>
-        <v>42590</v>
+        <v>23925</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -2162,7 +2163,7 @@
       </c>
       <c r="B27" s="36">
         <f>B26</f>
-        <v>42590</v>
+        <v>23925</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -2178,7 +2179,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="42">
-        <v>44034</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="30" spans="1:2">

--- a/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
+++ b/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
@@ -110,7 +110,7 @@
     <t>合同编号:</t>
   </si>
   <si>
-    <t>CCD-2020-7-20-00001</t>
+    <t>CCD-2020-11-20-00001</t>
   </si>
   <si>
     <t>签约时间:</t>
@@ -438,9 +438,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General&quot;圆&quot;&quot;整&quot;"/>
@@ -512,16 +512,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,9 +563,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,27 +579,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -603,29 +611,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -649,7 +634,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,6 +676,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -688,175 +844,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,6 +1002,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1013,26 +1022,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,6 +1073,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1092,10 +1092,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,133 +1104,133 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1772,7 +1772,7 @@
   <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1829,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <v>44058</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1892,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="22">
-        <v>1500000</v>
+        <v>5500000</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>19</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F11" s="25">
         <f>C11*E11</f>
-        <v>19500</v>
+        <v>71500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1913,8 +1913,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="22">
-        <f>F12/E12</f>
-        <v>147500</v>
+        <v>80000</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>19</v>
@@ -1923,7 +1922,7 @@
         <v>0.03</v>
       </c>
       <c r="F12" s="25">
-        <v>4425</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2150,7 +2149,7 @@
       </c>
       <c r="B26" s="32">
         <f>SUM(F11:F12)</f>
-        <v>23925</v>
+        <v>73908</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -2163,7 +2162,7 @@
       </c>
       <c r="B27" s="36">
         <f>B26</f>
-        <v>23925</v>
+        <v>73908</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -2179,7 +2178,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="42">
-        <v>44061</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="30" spans="1:2">

--- a/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
+++ b/季诚/成交客户/立早电子/合同/承兑合同/立早合同开票范本.xlsx
@@ -110,7 +110,7 @@
     <t>合同编号:</t>
   </si>
   <si>
-    <t>CCD-2020-11-20-00001</t>
+    <t>CCD-2021-5-10-00001</t>
   </si>
   <si>
     <t>签约时间:</t>
@@ -438,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General&quot;圆&quot;&quot;整&quot;"/>
   </numFmts>
@@ -505,12 +505,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -518,8 +540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,13 +550,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,6 +563,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -555,60 +625,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -625,31 +641,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,19 +676,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,13 +766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,133 +832,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,48 +1004,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,13 +1037,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,148 +1089,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1772,7 +1772,7 @@
   <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1829,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <v>44155</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1892,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="22">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>19</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F11" s="25">
         <f>C11*E11</f>
-        <v>71500</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1913,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="22">
-        <v>80000</v>
+        <v>124000</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>19</v>
@@ -1922,7 +1922,7 @@
         <v>0.03</v>
       </c>
       <c r="F12" s="25">
-        <v>2408</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B26" s="32">
         <f>SUM(F11:F12)</f>
-        <v>73908</v>
+        <v>42715</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B27" s="36">
         <f>B26</f>
-        <v>73908</v>
+        <v>42715</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -2178,7 +2178,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="42">
-        <v>44160</v>
+        <v>44331</v>
       </c>
     </row>
     <row r="30" spans="1:2">
